--- a/experiment/linear/ex9_1_10/compare/Fuertemente-Estacionario/ex9_1_10_Fuertemente-Estacionario.xlsx
+++ b/experiment/linear/ex9_1_10/compare/Fuertemente-Estacionario/ex9_1_10_Fuertemente-Estacionario.xlsx
@@ -494,13 +494,13 @@
         <v>0.0</v>
       </c>
       <c r="E2">
-        <v>0.00042147</v>
+        <v>0.000323266</v>
       </c>
       <c r="F2">
-        <v>0.03858417</v>
+        <v>0.02228147</v>
       </c>
       <c r="G2">
-        <v>0.000790148452456924</v>
+        <v>0.0005715590879475077</v>
       </c>
       <c r="H2">
         <v>1793</v>
@@ -535,13 +535,13 @@
         <v>-5686.295201020294</v>
       </c>
       <c r="E3">
-        <v>0.00957069</v>
+        <v>0.00967684</v>
       </c>
       <c r="F3">
-        <v>0.01725192</v>
+        <v>0.018272666</v>
       </c>
       <c r="G3">
-        <v>0.010933032210065646</v>
+        <v>0.010776944681034482</v>
       </c>
       <c r="H3">
         <v>6562</v>
